--- a/GA_bNa_bCa_NaK/Best_ind_ctrl6.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind_ctrl6.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.368172191288481</v>
+        <v>0.4656304144577315</v>
       </c>
       <c r="B2" t="n">
-        <v>3.301448504130109</v>
+        <v>1.19772107864239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5899902050950854</v>
+        <v>0.7129254412365559</v>
       </c>
       <c r="D2" t="n">
-        <v>1.254922295611775</v>
+        <v>2.524720928457763</v>
       </c>
       <c r="E2" t="n">
-        <v>0.271063706811307</v>
+        <v>3.508343826117752</v>
       </c>
       <c r="F2" t="n">
-        <v>3.913583131732345</v>
+        <v>4.154651833122602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.113275360598667</v>
+        <v>0.4346507508438204</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1831957731642573</v>
+        <v>0.274749959317091</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1723762679470059</v>
+        <v>2.211995851148349</v>
       </c>
       <c r="J2" t="n">
-        <v>2.647581056706136</v>
+        <v>0.1433450144518094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8711171285010473</v>
+        <v>0.4918761235192182</v>
       </c>
     </row>
   </sheetData>
